--- a/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
+++ b/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2022/Submissions/8-TheEnergyJournal-Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53C2A9-055A-0D47-8FCE-C34E18DAAA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628050-74F8-7E41-B4F1-52E66B104DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22880" yWindow="500" windowWidth="28320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referee responses" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,6 @@
   </si>
   <si>
     <t>Engineers may like dots to denote a flow, but economists often use lower case letters, with capitals for stocks.</t>
-  </si>
-  <si>
-    <t>Thanks for this comment. 
-We acknowledge that the overdot notation may be unfamiliar for economists. However, the goal of this paper is to bridge disciplines, and the chosen nomenclature will necessarily have unfamiliar elements to both disciplines. 
-To be clear, there are already many aspects of the nomenclature in these papers that are unusual for engineers [G (usually a flux), I (usually mass moment of inertia), p (usually pressure), Re (usually Reynolds number), S (usually suface area), u (usually internal energy), etc.]. So these papers are equal-opportunity offenders. 
-Furthermore, economists are already inconsistent in their use of uppercase and lowercase characters: u or U for utility, l or L for labor, etc.
-We made no changes in response to this comment.</t>
   </si>
   <si>
     <t>Annuity factors preceding a capital cost would be lower case. Is that convention clearer? It may be more familiar to your readers.</t>
@@ -145,9 +138,6 @@
 in the cost of owning and operating the device (or plus any saving), plus the Compensating Variation for the “price” change of the energy service, which is linked to the two substitution effects you’ve just calculated. Indeed, you show this Compensating Variation in the expenditure diagrams (figures 3 and 6) of Part II.</t>
   </si>
   <si>
-    <t>Thank you for this comment. Indeed, the compensating variation is defined as \dotN^\hat - \dotN^* and in order to make this clearer we have added the following line to the financial analysis of the substitution effect "The difference  \dotN^* - \dotN^\hat is the compensating variation from microeconomic analysis that allows the consumer to reach the pre-price change utility after a price change. It is negative as the energy service prices declines."</t>
-  </si>
-  <si>
     <t>I’m not sure what the convention on discounting in studies looking at energy savings and embodied energy – if you wanted to use your numbers to get a cost per MJ actually saved, it would be essential to discount everything, for consistency. It could also be argued that emissions in the near term are worse than those occurring later, since they will be in the atmosphere for more of the period most relevant to those currently alive. (The counter-argument that the carbon per unit of energy may fall over time is probably too speculative for more than a footnote.) It’s a bit odd to discount decommissioning costs but to ignore the issue for the
 initial purchase of the device.</t>
   </si>
@@ -159,12 +149,6 @@
   <si>
     <t>I don’t think you need the parts of the appendix that prove that
 the annuity factor is one over the device lifetime when the interest rate is zero – that’s a standard result in economics, and entirely intuitive (since the annuity factor combines depreciation and the return on outstanding capital, and a zero interest rate gives no return on capital).</t>
-  </si>
-  <si>
-    <t>Thanks for this comment. Perhaps it is interesting to know how these derivations came about. When the reviewer suggested that we include discount rates for money, searched the literature and found a paper that purported to account for time value of money with an annuity factor. The equation was clearly incorrect. So we had to derive these factors ourselves. Given that other papers in this space have done this calculation incorrectly, we needed to prove these results to ourselves before we introduced our approach in the paper. That's the first reason we believe there is value in including these proofs in an appendix.
-We point out that these papers have two audiences, economists and energy analysts. We agree with the reviewer that economists will expect that the annuity factor tau = 1.0 when interest rate r = 0 %/year. Economists can ignore those sections of the appendix.
-That said, the equations for the tau values may not be obvious to energy analysts. And the proofs demonstrate the expected behavior, assisting with understanding from this other important audience for these papers, energy analysis.
-We made no changes in response to this comment.</t>
   </si>
   <si>
     <t>Thank you for this insightful comment. We agree with the reviewer that in the aggregate, technology adoption usually follows a logistic (or s) curve. To address this comment, we took two steps. 
@@ -359,6 +343,21 @@
   <si>
     <t>Thank you very much for this good comment and exhorting us to be precise about what we are depicting. In response, we deleted the reference to the Buera and Trachter paper and industrial policy and instead focused on the data in the more relevant Foerster et al. paper, which looks squarely at the long-run effects of sectoral output shocks on aggregate output, including specifically of durable goods, from which we derive the value of 3 for our multiplier. We continue to believe that this is a better approach than using Keynesian multipliers as it is faithful to our sector-specific technology shock, rather than starting with aggregate shocks.</t>
   </si>
+  <si>
+    <t>Thanks for this comment. 
+We acknowledge that the overdot notation may be unfamiliar for economists. However, the goal of this paper is to bridge disciplines, and the chosen nomenclature will necessarily have unfamiliar elements to both disciplines. 
+To be clear, there are already many aspects of the nomenclature in these papers that are unusual for engineers [G (usually a flux), I (usually mass moment of inertia), p (usually pressure), Re (usually Reynolds number), S (usually suface area), u (usually internal energy), etc.]. So these papers are equal-opportunity offenders. 
+Furthermore, economists are already inconsistent in their use of uppercase and lowercase characters: u or U for utility, l or L for labor, etc.
+In response to this comment, we added the following sentence to footnote 4: "As the goal of this paper is to bridge disciplines, the nomenclature will necessarily have unfamiliar elements to each discipline involved."</t>
+  </si>
+  <si>
+    <t>Thank you for this comment. Indeed, the compensating variation is defined as N_dot_hat - N_dot_star. To make this clearer we have added the following line to the financial analysis of the substitution effect "The difference N_dot_star - N_dot_hat is the compensating variation from microeconomic analysis that allows the consumer to reach the pre-price change utility after a price change. It is negative as the energy service prices declines."</t>
+  </si>
+  <si>
+    <t>Thanks for this comment. Perhaps it is interesting to know how these derivations came about. When the reviewer suggested that we include discount rates for money, we searched the literature and found a paper that purported to account for time value of money with an annuity factor. The equation was clearly incorrect. So we (economist and energy analysts) had to derive these factors ourselves. Given that other papers in this space have done this calculation incorrectly, we needed to prove our approach to ourselves before we introduced our approach in the paper. Thus, we believe there is value in including these proofs in an appendix.
+Also, we point out that these papers have two audiences, economists and energy analysts. Parts of the paper will seem obvious to energy analysts. Other parts of the paper will be obvious to economists. Our stated goal is to write a paper that bridges disciplines. A way to achieve that goal is to provide derivations and further additional details in appendices for consultation by both energy analysts and economists. Thus, there may be more appendices than typically seen in such papers, but this owes to the need to serve and join two reseach communities.parts of the paper for energy analysts may appear obvious, whislt other parts may be obvious to economists'. One of our goals was to provide an accessible framework that crosses disciplines. Part of that accessiblity goal is met by providing derviations and further additional details in appendices, for consultation by both energy analysts and eocnomists. Thus there may be more appendices than typically seen, but this is owing to the need to serve and join two research communities'. Then you coudl thank the reviewer, by syaing that their point has reinforced the importance of highlight this twin goal, which you added as a note/footnote.parts of the paper for energy analysts may appear obvious, whislt other parts may be obvious to economists'. One of our goals was to provide an accessible framework that crosses disciplines. Part of that accessiblity goal is met by providing derviations and further additional details in appendices, for consultation by both energy analysts and eocnomists. Thus there may be more appendices than typically seen, but this is owing to the need to serve and join two research communities'. Then you coudl thank the reviewer, by syaing that their point has reinforced the importance of highlight this twin goal, which you added as a note/footnote. 
+This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,32 +453,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,8 +686,8 @@
   <dimension ref="A1:E760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -737,371 +720,371 @@
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="98" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="210" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="238" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="196" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="140" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="140" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="397" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="182" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="348" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B23" s="8">
         <v>20</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="196" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="C23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
         <v>22</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="196" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="168" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="238" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="182" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="11">
-        <v>17</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="C27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="11">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11">
-        <v>19</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="348" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>2</v>
-      </c>
-      <c r="B24" s="11">
-        <v>21</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11">
-        <v>22</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="196" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11">
-        <v>23</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="168" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
-        <v>2</v>
-      </c>
-      <c r="B27" s="11">
-        <v>24</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>

--- a/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
+++ b/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2022/Submissions/8-TheEnergyJournal-Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628050-74F8-7E41-B4F1-52E66B104DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA895D-A61B-AB45-B20C-F91B2C01711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22880" yWindow="500" windowWidth="28320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,11 +317,6 @@
 embedded energy and cost...</t>
   </si>
   <si>
-    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 08. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. What this may mean is that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
-To address these points, we added a footnote in Section 3.2.1 Numerical results: Lamp example.
-Thank you for this helpful comment.</t>
-  </si>
-  <si>
     <t>On page 24, I think the returns to money spent on industrial policy are a very different concept to the kind of multiplier you’re looking for. You’re wanting to know how a dollar saving on energy cost is going to affect output; the study you cite sounds as if each dollar spent by the government gives benefits of five dollars, but those aren’t split between the saving from the technology and the benefit of greater output. What if all the benefits were due to lower costs with no greater output? I think this is the most speculative part of the paper – particularly as some of the argument seems to suggest that changes in the efficiency of using consumer goods is going to have supply-side impacts on the wider economy, beyond the standard Keynesian expansion of aggregate demand. I’ve re-read your comments in Part I and remain unconvinced; I’d suggest looking for estimates for standard Keynesian multipliers.</t>
   </si>
   <si>
@@ -355,8 +350,13 @@
   </si>
   <si>
     <t>Thanks for this comment. Perhaps it is interesting to know how these derivations came about. When the reviewer suggested that we include discount rates for money, we searched the literature and found a paper that purported to account for time value of money with an annuity factor. The equation was clearly incorrect. So we (economist and energy analysts) had to derive these factors ourselves. Given that other papers in this space have done this calculation incorrectly, we needed to prove our approach to ourselves before we introduced our approach in the paper. Thus, we believe there is value in including these proofs in an appendix.
-Also, we point out that these papers have two audiences, economists and energy analysts. Parts of the paper will seem obvious to energy analysts. Other parts of the paper will be obvious to economists. Our stated goal is to write a paper that bridges disciplines. A way to achieve that goal is to provide derivations and further additional details in appendices for consultation by both energy analysts and economists. Thus, there may be more appendices than typically seen in such papers, but this owes to the need to serve and join two reseach communities.parts of the paper for energy analysts may appear obvious, whislt other parts may be obvious to economists'. One of our goals was to provide an accessible framework that crosses disciplines. Part of that accessiblity goal is met by providing derviations and further additional details in appendices, for consultation by both energy analysts and eocnomists. Thus there may be more appendices than typically seen, but this is owing to the need to serve and join two research communities'. Then you coudl thank the reviewer, by syaing that their point has reinforced the importance of highlight this twin goal, which you added as a note/footnote.parts of the paper for energy analysts may appear obvious, whislt other parts may be obvious to economists'. One of our goals was to provide an accessible framework that crosses disciplines. Part of that accessiblity goal is met by providing derviations and further additional details in appendices, for consultation by both energy analysts and eocnomists. Thus there may be more appendices than typically seen, but this is owing to the need to serve and join two research communities'. Then you coudl thank the reviewer, by syaing that their point has reinforced the importance of highlight this twin goal, which you added as a note/footnote. 
-This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote</t>
+Also, we point out that our papers have two stated audiences, economists and energy analysts. Parts of the papers will seem obvious to energy analysts. Other parts of the papers will be obvious to economists. Our stated goal is to write papers that bridges disciplines. A way to achieve that goal is to provide derivations and further additional details in appendices for consultation by both energy analysts and economists. Thus, there may be more appendices than typically seen in such papers, but this owes to the need to serve and join two reseach communities.
+This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote in Section 1.4 of Part I: "This objective may mean that some aspects of the development of the framework will seem obvious to energy analysts while other aspects will seem obvious to economists."</t>
+  </si>
+  <si>
+    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 08. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. This may mean that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
+To address these points, we added a footnote in Section 3.2.1 Numerical results: Lamp example.
+Thank you for this helpful comment.</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
   <dimension ref="A1:E760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -805,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -895,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="397" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="266" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>28</v>
@@ -952,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
@@ -967,7 +967,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>30</v>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>33</v>
@@ -1066,8 +1066,8 @@
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -1079,10 +1079,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -6219,5 +6219,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
+++ b/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2022/Submissions/8-TheEnergyJournal-Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA895D-A61B-AB45-B20C-F91B2C01711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C981A-8562-A445-BCE0-61864A518131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22880" yWindow="500" windowWidth="28320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referee responses" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
 This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote in Section 1.4 of Part I: "This objective may mean that some aspects of the development of the framework will seem obvious to energy analysts while other aspects will seem obvious to economists."</t>
   </si>
   <si>
-    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 08. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. This may mean that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
+    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 0.8. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. This may mean that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
 To address these points, we added a footnote in Section 3.2.1 Numerical results: Lamp example.
 Thank you for this helpful comment.</t>
   </si>
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
+++ b/Submissions/8-TheEnergyJournal-Resubmission/Responses to MPC reviewers November 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2022/Submissions/8-TheEnergyJournal-Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C981A-8562-A445-BCE0-61864A518131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4D108-7318-B545-A30C-D29CA73C9E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,12 +151,6 @@
 the annuity factor is one over the device lifetime when the interest rate is zero – that’s a standard result in economics, and entirely intuitive (since the annuity factor combines depreciation and the return on outstanding capital, and a zero interest rate gives no return on capital).</t>
   </si>
   <si>
-    <t>Thank you for this insightful comment. We agree with the reviewer that in the aggregate, technology adoption usually follows a logistic (or s) curve. To address this comment, we took two steps. 
-First, we deleted the text justifying our approach, namely "A justification for spreading embodied energy and purchase costs comes from considering device replacements by many consumers across several years. In the aggregate, evenly spaced (in time) replacements work out to the same embodied energy in every period." We already say our approach is a simplification ("For simplicity, we spread all embodied energy over the lifetime of the device for a constant embodied energy rate ($\rate{E}_{emb}$)%.")
-Second, we added a footnote saying "In the aggregate, adoption of new technology usually follows a logistic (or ``S'') curve."
-We trust this addresses this comment.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -219,13 +213,70 @@
 effect, but as part of “income effects”. Doing so makes sense, but I strongly suspect some economists would be conditioned to think that “income and substitution effects” both relate solely to the change in the “price” of the energy service, because those effects are inevitably taught in the context of a price change.</t>
   </si>
   <si>
+    <t>For table 8, make the reader’s life easier, and add a column to the left which reminds us what each parameter stands for – there’s space! I wondered about using dots or dashes to show when
+parameters (or choice variables, such as distance driven) take the same value as in the previous
+(leftward) column – it becomes more obvious when a changing parameter is leading to a change in energy use (etc), and the sparser table concentrates the reader’s attention on the things that are changing rather than those that are not. The same comment applies to table 10, of course.</t>
+  </si>
+  <si>
+    <t>Thanks for this comment. In response, we changed Tables 8 and 10 to have blanks where no parameter changes occur. In addition, we added a column at the left to provide descriptions of the parameter in each row. We agree that the tables are more readable with these changes.</t>
+  </si>
+  <si>
+    <t>I’m doubtful about your calculations for the lamp, however. You suggest that the lighting demand would rise from 0.6 million lm.hr per year to 1.4 million lm.hr per year, so more than doubling.
+But that’s from an unchanged number of lights. Are people with more efficient lights leaving
+them on twice as long? I doubt it. Fouquet is looking at long-run changes, where I expect houses
+were being built with more lighting points in each room, consumers were perhaps putting in brighter (e.g. 100 Watt rather than 60 Watt) incandescent bulbs, and perhaps people were adding corner and table lamps. You could incorporate such changes, but of course they’d have their own
+embedded energy and cost...</t>
+  </si>
+  <si>
+    <t>On page 24, I think the returns to money spent on industrial policy are a very different concept to the kind of multiplier you’re looking for. You’re wanting to know how a dollar saving on energy cost is going to affect output; the study you cite sounds as if each dollar spent by the government gives benefits of five dollars, but those aren’t split between the saving from the technology and the benefit of greater output. What if all the benefits were due to lower costs with no greater output? I think this is the most speculative part of the paper – particularly as some of the argument seems to suggest that changes in the efficiency of using consumer goods is going to have supply-side impacts on the wider economy, beyond the standard Keynesian expansion of aggregate demand. I’ve re-read your comments in Part I and remain unconvinced; I’d suggest looking for estimates for standard Keynesian multipliers.</t>
+  </si>
+  <si>
+    <t>The assumption that device installation will be spread evenly over time ignores the well-known S-curve pattern with which most innovations are adopted.</t>
+  </si>
+  <si>
+    <t>Is there a problem with the N (or its description) in line 403 – is it all income, or all of the change in income after spending on energy?</t>
+  </si>
+  <si>
+    <t>I suspect footnote 20 is a bit strong – the rise in efficiency does make the energy available to the economy go further, and there’s probably some scope for substituting between energy and other inputs, but as those other inputs remain constrained, I suspect there could still be crowding out.</t>
+  </si>
+  <si>
+    <t>Appendix B.1 is much fuller than it needs to be – there are a lot of expressions that you’re writing out in full that economists would just “take as given”, and if you feel you must derive them for one cost category, you should still just add a sentence which lists the categories that are analogous. I realise that “space” may be cheap in an online appendix, but readers’ attention
+is a scarce commodity.</t>
+  </si>
+  <si>
+    <t>Equation (4) is stated in terms of costs only, which, as we explain fully in the response to Comment 3, we desire to leave in cost terms only, for simplicity. We implemented this helpful suggestion in Equation (5). Thank you for this suggestion.</t>
+  </si>
+  <si>
+    <t>Thank you very much for this good comment and exhorting us to be precise about what we are depicting. In response, we deleted the reference to the Buera and Trachter paper and industrial policy and instead focused on the data in the more relevant Foerster et al. paper, which looks squarely at the long-run effects of sectoral output shocks on aggregate output, including specifically of durable goods, from which we derive the value of 3 for our multiplier. We continue to believe that this is a better approach than using Keynesian multipliers as it is faithful to our sector-specific technology shock, rather than starting with aggregate shocks.</t>
+  </si>
+  <si>
+    <t>Thanks for this comment. 
+We acknowledge that the overdot notation may be unfamiliar for economists. However, the goal of this paper is to bridge disciplines, and the chosen nomenclature will necessarily have unfamiliar elements to both disciplines. 
+To be clear, there are already many aspects of the nomenclature in these papers that are unusual for engineers [G (usually a flux), I (usually mass moment of inertia), p (usually pressure), Re (usually Reynolds number), S (usually suface area), u (usually internal energy), etc.]. So these papers are equal-opportunity offenders. 
+Furthermore, economists are already inconsistent in their use of uppercase and lowercase characters: u or U for utility, l or L for labor, etc.
+In response to this comment, we added the following sentence to footnote 4: "As the goal of this paper is to bridge disciplines, the nomenclature will necessarily have unfamiliar elements to each discipline involved."</t>
+  </si>
+  <si>
+    <t>Thank you for this comment. Indeed, the compensating variation is defined as N_dot_hat - N_dot_star. To make this clearer we have added the following line to the financial analysis of the substitution effect "The difference N_dot_star - N_dot_hat is the compensating variation from microeconomic analysis that allows the consumer to reach the pre-price change utility after a price change. It is negative as the energy service prices declines."</t>
+  </si>
+  <si>
+    <t>Thanks for this comment. Perhaps it is interesting to know how these derivations came about. When the reviewer suggested that we include discount rates for money, we searched the literature and found a paper that purported to account for time value of money with an annuity factor. The equation was clearly incorrect. So we (economist and energy analysts) had to derive these factors ourselves. Given that other papers in this space have done this calculation incorrectly, we needed to prove our approach to ourselves before we introduced our approach in the paper. Thus, we believe there is value in including these proofs in an appendix.
+Also, we point out that our papers have two stated audiences, economists and energy analysts. Parts of the papers will seem obvious to energy analysts. Other parts of the papers will be obvious to economists. Our stated goal is to write papers that bridges disciplines. A way to achieve that goal is to provide derivations and further additional details in appendices for consultation by both energy analysts and economists. Thus, there may be more appendices than typically seen in such papers, but this owes to the need to serve and join two reseach communities.
+This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote in Section 1.4 of Part I: "This objective may mean that some aspects of the development of the framework will seem obvious to energy analysts while other aspects will seem obvious to economists."</t>
+  </si>
+  <si>
+    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 0.8. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. This may mean that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
+To address these points, we added a footnote in Section 3.2.1 Numerical results: Lamp example.
+Thank you for this helpful comment.</t>
+  </si>
+  <si>
+    <t>Thank you for this insightful comment. We agree with the reviewer that in the aggregate, technology adoption usually follows a logistic (or s) curve. However, our framework is focused on individual machines. So the original sentence and the S-curve adoption are not really applicable. 
+To address this comment, we deleted the text justifying our approach, namely "A justification for spreading embodied energy and purchase costs comes from considering device replacements by many consumers across several years. In the aggregate, evenly spaced (in time) replacements work out to the same embodied energy in every period." We already say our approach is a simplification ("For simplicity, we spread all embodied energy over the lifetime of the device for a constant embodied energy rate ($\rate{E}_{emb}$)%.")
+Then, we modified the sentence in question to the following: "For simplicity, we spread all embodied energy evenly over the lifetime of the device which gives a constant embodied energy rate ($\rate{E}_{emb}$)."
+We trust this addresses this comment.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Thanks for this comment. In response, we have improved the sentence in Part II to which you referred as follows:
 Emplacement (by itself) does not alter consumption patterns, so ... --&gt; </t>
     </r>
@@ -298,65 +349,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Then, any (positive or negative) adjustment in income due to emplacement is added to the freed cash (G_dot) spent in the income effect.</t>
+      <t>Any (positive or negative) adjustment in income due to emplacement (measured as net income, N_dot_star) is added to the freed cash (G_dot) spent in the income effect.</t>
     </r>
-  </si>
-  <si>
-    <t>For table 8, make the reader’s life easier, and add a column to the left which reminds us what each parameter stands for – there’s space! I wondered about using dots or dashes to show when
-parameters (or choice variables, such as distance driven) take the same value as in the previous
-(leftward) column – it becomes more obvious when a changing parameter is leading to a change in energy use (etc), and the sparser table concentrates the reader’s attention on the things that are changing rather than those that are not. The same comment applies to table 10, of course.</t>
-  </si>
-  <si>
-    <t>Thanks for this comment. In response, we changed Tables 8 and 10 to have blanks where no parameter changes occur. In addition, we added a column at the left to provide descriptions of the parameter in each row. We agree that the tables are more readable with these changes.</t>
-  </si>
-  <si>
-    <t>I’m doubtful about your calculations for the lamp, however. You suggest that the lighting demand would rise from 0.6 million lm.hr per year to 1.4 million lm.hr per year, so more than doubling.
-But that’s from an unchanged number of lights. Are people with more efficient lights leaving
-them on twice as long? I doubt it. Fouquet is looking at long-run changes, where I expect houses
-were being built with more lighting points in each room, consumers were perhaps putting in brighter (e.g. 100 Watt rather than 60 Watt) incandescent bulbs, and perhaps people were adding corner and table lamps. You could incorporate such changes, but of course they’d have their own
-embedded energy and cost...</t>
-  </si>
-  <si>
-    <t>On page 24, I think the returns to money spent on industrial policy are a very different concept to the kind of multiplier you’re looking for. You’re wanting to know how a dollar saving on energy cost is going to affect output; the study you cite sounds as if each dollar spent by the government gives benefits of five dollars, but those aren’t split between the saving from the technology and the benefit of greater output. What if all the benefits were due to lower costs with no greater output? I think this is the most speculative part of the paper – particularly as some of the argument seems to suggest that changes in the efficiency of using consumer goods is going to have supply-side impacts on the wider economy, beyond the standard Keynesian expansion of aggregate demand. I’ve re-read your comments in Part I and remain unconvinced; I’d suggest looking for estimates for standard Keynesian multipliers.</t>
-  </si>
-  <si>
-    <t>The assumption that device installation will be spread evenly over time ignores the well-known S-curve pattern with which most innovations are adopted.</t>
-  </si>
-  <si>
-    <t>Is there a problem with the N (or its description) in line 403 – is it all income, or all of the change in income after spending on energy?</t>
-  </si>
-  <si>
-    <t>I suspect footnote 20 is a bit strong – the rise in efficiency does make the energy available to the economy go further, and there’s probably some scope for substituting between energy and other inputs, but as those other inputs remain constrained, I suspect there could still be crowding out.</t>
-  </si>
-  <si>
-    <t>Appendix B.1 is much fuller than it needs to be – there are a lot of expressions that you’re writing out in full that economists would just “take as given”, and if you feel you must derive them for one cost category, you should still just add a sentence which lists the categories that are analogous. I realise that “space” may be cheap in an online appendix, but readers’ attention
-is a scarce commodity.</t>
-  </si>
-  <si>
-    <t>Equation (4) is stated in terms of costs only, which, as we explain fully in the response to Comment 3, we desire to leave in cost terms only, for simplicity. We implemented this helpful suggestion in Equation (5). Thank you for this suggestion.</t>
-  </si>
-  <si>
-    <t>Thank you very much for this good comment and exhorting us to be precise about what we are depicting. In response, we deleted the reference to the Buera and Trachter paper and industrial policy and instead focused on the data in the more relevant Foerster et al. paper, which looks squarely at the long-run effects of sectoral output shocks on aggregate output, including specifically of durable goods, from which we derive the value of 3 for our multiplier. We continue to believe that this is a better approach than using Keynesian multipliers as it is faithful to our sector-specific technology shock, rather than starting with aggregate shocks.</t>
-  </si>
-  <si>
-    <t>Thanks for this comment. 
-We acknowledge that the overdot notation may be unfamiliar for economists. However, the goal of this paper is to bridge disciplines, and the chosen nomenclature will necessarily have unfamiliar elements to both disciplines. 
-To be clear, there are already many aspects of the nomenclature in these papers that are unusual for engineers [G (usually a flux), I (usually mass moment of inertia), p (usually pressure), Re (usually Reynolds number), S (usually suface area), u (usually internal energy), etc.]. So these papers are equal-opportunity offenders. 
-Furthermore, economists are already inconsistent in their use of uppercase and lowercase characters: u or U for utility, l or L for labor, etc.
-In response to this comment, we added the following sentence to footnote 4: "As the goal of this paper is to bridge disciplines, the nomenclature will necessarily have unfamiliar elements to each discipline involved."</t>
-  </si>
-  <si>
-    <t>Thank you for this comment. Indeed, the compensating variation is defined as N_dot_hat - N_dot_star. To make this clearer we have added the following line to the financial analysis of the substitution effect "The difference N_dot_star - N_dot_hat is the compensating variation from microeconomic analysis that allows the consumer to reach the pre-price change utility after a price change. It is negative as the energy service prices declines."</t>
-  </si>
-  <si>
-    <t>Thanks for this comment. Perhaps it is interesting to know how these derivations came about. When the reviewer suggested that we include discount rates for money, we searched the literature and found a paper that purported to account for time value of money with an annuity factor. The equation was clearly incorrect. So we (economist and energy analysts) had to derive these factors ourselves. Given that other papers in this space have done this calculation incorrectly, we needed to prove our approach to ourselves before we introduced our approach in the paper. Thus, we believe there is value in including these proofs in an appendix.
-Also, we point out that our papers have two stated audiences, economists and energy analysts. Parts of the papers will seem obvious to energy analysts. Other parts of the papers will be obvious to economists. Our stated goal is to write papers that bridges disciplines. A way to achieve that goal is to provide derivations and further additional details in appendices for consultation by both energy analysts and economists. Thus, there may be more appendices than typically seen in such papers, but this owes to the need to serve and join two reseach communities.
-This point has reinforced the importance of highlighting our objectives. In response, we which you added a new footnote in Section 1.4 of Part I: "This objective may mean that some aspects of the development of the framework will seem obvious to energy analysts while other aspects will seem obvious to economists."</t>
-  </si>
-  <si>
-    <t>Thank you for your comment and pointing out the very large increase in lamp running time. We actually use an elasticity on the lower end of Borenstein's (2015) elasticity range of 0.4 to 0.8. Effectively our results indicate that a lamp is being used 7 instead of 3 hours a day. This may mean that a lamp isn't turned off when device users leave a room or the house for short times - something that the authors find anecdotal evidence for in their daily lives. However, we agree that it is important to distinguish this rebound effect from one where the additional or more powerful lamps would be added. Here, the size of the rebound would be affected in two ways: first, since more cash would be spent on a second lamp or presumably also on a more powerful single lamp, the income effect which includes the (negative) savings from emplacement as you perspicuously pointed out, would become smaller. At the same time, substitution effect rebound would become larger.
-To address these points, we added a footnote in Section 3.2.1 Numerical results: Lamp example.
-Thank you for this helpful comment.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,6 +457,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -731,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -805,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -895,7 +892,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -925,11 +922,11 @@
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="182" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="224" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -937,10 +934,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -952,10 +949,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -967,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -982,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -997,10 +994,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1019,10 +1016,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -1034,10 +1031,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -1049,10 +1046,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -1064,10 +1061,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -1079,10 +1076,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4"/>
     </row>
